--- a/biology/Botanique/Rose_rouge_de_Lancastre/Rose_rouge_de_Lancastre.xlsx
+++ b/biology/Botanique/Rose_rouge_de_Lancastre/Rose_rouge_de_Lancastre.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Rose rouge de Lancastre est l'emblème floral de la province du Lancashire en Angleterre.
 L'espèce ou le cultivar exact restent imprécis, mais la rose la plus probable est la Rosa gallica officinalis.
@@ -513,7 +525,9 @@
           <t>Utilisations ultérieures</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Drapeau du Lancashire
@@ -548,7 +562,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(en) Cet article est partiellement ou en totalité issu de l’article de Wikipédia en anglais intitulé « Red Rose of Lancaster » (voir la liste des auteurs).</t>
         </is>
